--- a/biology/Médecine/Arthur_Bordier/Arthur_Bordier.xlsx
+++ b/biology/Médecine/Arthur_Bordier/Arthur_Bordier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur Bordier, né le 3 mai 1841 à Saint-Calais et mort le 17 février 1910 à Grenoble[1], est médecin anthropologue, fondateur de la Société dauphinoise d’ethnologie et d’anthropologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arthur Bordier, né le 3 mai 1841 à Saint-Calais et mort le 17 février 1910 à Grenoble, est médecin anthropologue, fondateur de la Société dauphinoise d’ethnologie et d’anthropologie.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur Bordier fait ses études à Paris ; il est reçu docteur en médecine en juin 1868 et devient chef de clinique à la Faculté de Médecine de Paris[2]. Il est médecin militaire pendant la guerre de 1870[2].
-En 1878, Bordier est nommé titulaire de la nouvelle chaire de géographie médicale à l’École d’anthropologie de Paris, chaire qu’il occupera jusqu’en 1895[2].
-Le docteur Bordier est directeur de l’École préparatoire de médecine et de pharmacie de Grenoble de 1894 à sa mort[2]. À ce titre, il recrute Hippolyte Müller comme bibliothécaire. Parallèlement, il devient en 1902 directeur du service municipal d’hygiène[2] et fonde la Société dauphinoise d’ethnologie et d’anthropologie (Grenoble, 1894) dont il sera le secrétaire général jusqu’à sa mort[2], organisant également le tout premier congrès de l’Association française pour l’avancement des sciences (1885)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arthur Bordier fait ses études à Paris ; il est reçu docteur en médecine en juin 1868 et devient chef de clinique à la Faculté de Médecine de Paris. Il est médecin militaire pendant la guerre de 1870.
+En 1878, Bordier est nommé titulaire de la nouvelle chaire de géographie médicale à l’École d’anthropologie de Paris, chaire qu’il occupera jusqu’en 1895.
+Le docteur Bordier est directeur de l’École préparatoire de médecine et de pharmacie de Grenoble de 1894 à sa mort. À ce titre, il recrute Hippolyte Müller comme bibliothécaire. Parallèlement, il devient en 1902 directeur du service municipal d’hygiène et fonde la Société dauphinoise d’ethnologie et d’anthropologie (Grenoble, 1894) dont il sera le secrétaire général jusqu’à sa mort, organisant également le tout premier congrès de l’Association française pour l’avancement des sciences (1885).
 Il est chevalier de la Légion d’honneur, 4 février 1880.
 Il est inhumé au cimetière Saint-Roch à Grenoble.
 </t>
@@ -546,7 +560,9 @@
           <t>Portraits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Urbain Basset, Arthur Bordier, statuette en plâtre patiné, 1902. Coll. Musée de Grenoble (MG 1929).
 Urbain Basset, Arthur Bordier, médaillon en plâtre patiné. Coll. Musée de Grenoble (MG 1928).
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Des nerfs vaso-moteurs ganglionnaires, anatomie, physiologie, pathologie, thérapeutique, Paris, L. Leclerc, 1868, 106 p.
 Étude anthropologique sur une série de crânes d'assassins, Paris, G. Masson, 1881, 63 p.
